--- a/公募期限リスト.xlsx
+++ b/公募期限リスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imadatakamasa/mac_git/or-cont-novel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imadatakamasa/mac_git/es-allgenre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5681C5DB-C799-6F4D-986C-B27F72ACB244}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BAFD6B-6E48-444E-92F1-EFFEC64EADC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28300" windowHeight="16480" xr2:uid="{23BD56C3-722E-824F-BAB8-9AE40E38398E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>公募名</t>
     <rPh sb="0" eb="2">
@@ -38,17 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>主な規約</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>星新一賞</t>
-    <rPh sb="0" eb="1">
-      <t>sy</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日経</t>
     <rPh sb="0" eb="2">
       <t>ニッケ</t>
@@ -56,11 +45,94 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ショートショート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>締め切り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文字数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>規約</t>
+    <rPh sb="0" eb="2">
+      <t>キヤk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000文字以内</t>
+    <rPh sb="0" eb="2">
+      <t>モz</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あなたの理系的発想力を存分に発揮して読む人の心を刺激する物語を書いてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>年</t>
+    <rPh sb="0" eb="1">
+      <t>ネn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[リンク](http://hoshiaward.nikkei.co.jp/)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9/30(金)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>8/10(金)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cobalt編集部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">星新一賞 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短編小説新人賞</t>
+    <rPh sb="0" eb="1">
+      <t>シn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>原稿用紙25〜30枚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日本語で書かれた、自作未発表の作品</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[リンク](https://cobalt.shueisha.co.jp/write/newface-award-apply/)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -107,9 +179,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,17 +503,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{298E7D3A-3C48-8141-AEEE-69696021C261}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="A2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="68.85546875" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -444,21 +533,72 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>2022</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
